--- a/Metro-Study/Pickles/Metro Adresses for Final Touches.xlsx
+++ b/Metro-Study/Pickles/Metro Adresses for Final Touches.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="95">
+  <si>
+    <t>Name</t>
+  </si>
   <si>
     <t>Address</t>
   </si>
@@ -25,6 +28,120 @@
     <t>Opening Date</t>
   </si>
   <si>
+    <t>Cityring</t>
+  </si>
+  <si>
+    <t>Aksel Møllers Have Station</t>
+  </si>
+  <si>
+    <t>Amager Strand Station</t>
+  </si>
+  <si>
+    <t>Amagerbro Station</t>
+  </si>
+  <si>
+    <t>Bella Center Station</t>
+  </si>
+  <si>
+    <t>Christianshavn Station</t>
+  </si>
+  <si>
+    <t>DR Byen Station</t>
+  </si>
+  <si>
+    <t>Enghave Plads Station</t>
+  </si>
+  <si>
+    <t>Fasanvej Station</t>
+  </si>
+  <si>
+    <t>Femøren Station</t>
+  </si>
+  <si>
+    <t>Flintholm Station</t>
+  </si>
+  <si>
+    <t>Forum Station</t>
+  </si>
+  <si>
+    <t>Frederiksberg Station</t>
+  </si>
+  <si>
+    <t>Frederiksberg Allé Station</t>
+  </si>
+  <si>
+    <t>Gammel Strand Station</t>
+  </si>
+  <si>
+    <t>Islands Brygge Station</t>
+  </si>
+  <si>
+    <t>Kastrup Station</t>
+  </si>
+  <si>
+    <t>Kongens Nytorv Station</t>
+  </si>
+  <si>
+    <t>Lergravsparken Station</t>
+  </si>
+  <si>
+    <t>Lindevang Station</t>
+  </si>
+  <si>
+    <t>Marmorkirken Station</t>
+  </si>
+  <si>
+    <t>Nordhavn Station</t>
+  </si>
+  <si>
+    <t>Nuuks Plads Station</t>
+  </si>
+  <si>
+    <t>Nørrebro Station</t>
+  </si>
+  <si>
+    <t>Nørrebros Runddel Station</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nørreport Station  </t>
+  </si>
+  <si>
+    <t>Orientkaj Station</t>
+  </si>
+  <si>
+    <t>Poul Henningsens Plads Station</t>
+  </si>
+  <si>
+    <t>Rådhuspladsen Station</t>
+  </si>
+  <si>
+    <t>Skjolds Plads Station</t>
+  </si>
+  <si>
+    <t>Sundby Station</t>
+  </si>
+  <si>
+    <t>Trianglen Station</t>
+  </si>
+  <si>
+    <t>Vanløse Station</t>
+  </si>
+  <si>
+    <t>Vestamager Station</t>
+  </si>
+  <si>
+    <t>Vibenshus Runddel Station</t>
+  </si>
+  <si>
+    <t>Ørestad Station</t>
+  </si>
+  <si>
+    <t>Øresund Station</t>
+  </si>
+  <si>
+    <t>Østerport Station</t>
+  </si>
+  <si>
     <t>Godthåbsvej 312000 Frederiksberg</t>
   </si>
   <si>
@@ -91,9 +208,6 @@
     <t>Rantzausgade 752200 København N</t>
   </si>
   <si>
-    <t>Carl Jacobsens Vej 192500 Valby</t>
-  </si>
-  <si>
     <t>Nørrebrogade 2532200 København N</t>
   </si>
   <si>
@@ -154,7 +268,7 @@
     <t>Frederikssundbanen, Ringbanen, Frederiksbergbanen</t>
   </si>
   <si>
-    <t>FrederiksbergbanenCityringen[2]</t>
+    <t>FrederiksbergbanenCityringen</t>
   </si>
   <si>
     <t>Cityringen, Nordhavnsmetroen</t>
@@ -169,9 +283,6 @@
     <t>Nordbanen, Nordhavnsmetroen</t>
   </si>
   <si>
-    <t>Ringbanen og Køge Bugt-banen</t>
-  </si>
-  <si>
     <t>Ringbanen og Cityringen</t>
   </si>
   <si>
@@ -188,57 +299,6 @@
   </si>
   <si>
     <t>Boulevardbanen Kystbanen Nordbanen Cityringen</t>
-  </si>
-  <si>
-    <t>29. september 2019</t>
-  </si>
-  <si>
-    <t>28. september 2007</t>
-  </si>
-  <si>
-    <t>19. oktober 2002</t>
-  </si>
-  <si>
-    <t>13. december 1986 (S-tog), 12. oktober 2003 (Metro)</t>
-  </si>
-  <si>
-    <t>24. januar 2004</t>
-  </si>
-  <si>
-    <t>29. maj 2003</t>
-  </si>
-  <si>
-    <t>1864, 1911, 2003 og 2019</t>
-  </si>
-  <si>
-    <t>12. oktober 2003</t>
-  </si>
-  <si>
-    <t>15. maj 1934</t>
-  </si>
-  <si>
-    <t>16. november 2006 (Ringbanen) 6. januar 2007 (Køge Bugt-banen)2014[kilde mangler] (regionaltog)</t>
-  </si>
-  <si>
-    <t>1. juli 1886 15. maj 1930 (nuværende) 29. september 2019 (metrostationen)</t>
-  </si>
-  <si>
-    <t>1. juli 191815. maj 1934 (S-tog)19. oktober 2002 (Metro)</t>
-  </si>
-  <si>
-    <t>28. marts 2020</t>
-  </si>
-  <si>
-    <t>29. september 2019.</t>
-  </si>
-  <si>
-    <t>15. juni 189823. september 1941 (S-tog)12. oktober 2003 (Metro)</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2. august 1897</t>
   </si>
 </sst>
 </file>
@@ -596,13 +656,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,537 +672,751 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>79</v>
+      </c>
+      <c r="E2">
+        <v>2019</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>80</v>
+      </c>
+      <c r="E3">
+        <v>2007</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>81</v>
+      </c>
+      <c r="E4">
+        <v>2002</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>81</v>
+      </c>
+      <c r="E5">
+        <v>2002</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>81</v>
+      </c>
+      <c r="E6">
+        <v>2002</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>81</v>
+      </c>
+      <c r="E7">
+        <v>2002</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>79</v>
+      </c>
+      <c r="E8">
+        <v>2019</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>82</v>
+      </c>
+      <c r="E9">
+        <v>2003</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>80</v>
+      </c>
+      <c r="E10">
+        <v>2007</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>83</v>
+      </c>
+      <c r="E11">
+        <v>2004</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>82</v>
+      </c>
+      <c r="E12">
+        <v>2003</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>84</v>
+      </c>
+      <c r="E13">
+        <v>2019</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14">
+        <v>2019</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15">
+        <v>2019</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16">
+        <v>2002</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17">
+        <v>2007</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18">
+        <v>2002</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19">
+        <v>2002</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20">
+        <v>2003</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21">
+        <v>2019</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22">
+        <v>1934</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23">
+        <v>2019</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24">
+        <v>2019</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25">
+        <v>2019</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26">
+        <v>2002</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27">
+        <v>2020</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28">
+        <v>2019</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29">
+        <v>2019</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30">
+        <v>2019</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31">
+        <v>2002</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32">
+        <v>2019</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33">
+        <v>2003</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34">
+        <v>2002</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35">
+        <v>2019</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36">
+        <v>2000</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37">
+        <v>2007</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
         <v>41</v>
       </c>
-      <c r="D14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1">
-        <v>26</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1">
-        <v>27</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1">
-        <v>28</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1">
-        <v>29</v>
-      </c>
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1">
-        <v>30</v>
-      </c>
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1">
-        <v>31</v>
-      </c>
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1">
-        <v>32</v>
-      </c>
-      <c r="B29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1">
-        <v>33</v>
-      </c>
-      <c r="B30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1">
-        <v>34</v>
-      </c>
-      <c r="B31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1">
-        <v>36</v>
-      </c>
-      <c r="B32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1">
-        <v>37</v>
-      </c>
-      <c r="B33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1">
-        <v>38</v>
-      </c>
-      <c r="B34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1">
-        <v>39</v>
-      </c>
-      <c r="B35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1">
-        <v>40</v>
-      </c>
-      <c r="B36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1">
-        <v>41</v>
-      </c>
-      <c r="B37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1">
-        <v>42</v>
-      </c>
-      <c r="B38" t="s">
-        <v>39</v>
-      </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="D38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1">
-        <v>43</v>
-      </c>
-      <c r="B39" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" t="s">
-        <v>74</v>
+        <v>94</v>
+      </c>
+      <c r="E38">
+        <v>1897</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
